--- a/Regular Summarization link.xlsx
+++ b/Regular Summarization link.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyData\Kodi_GenAi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\L\GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60483BFB-101C-4B7E-B0CB-65D372187686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6B62AF-0A4F-460A-8AF9-FFA1BA558B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="379">
   <si>
     <t>Date</t>
   </si>
@@ -1276,16 +1276,10 @@
     <t>simple regression model theory</t>
   </si>
   <si>
-    <t>regresssion pratical 1</t>
-  </si>
-  <si>
     <t>Day39</t>
   </si>
   <si>
     <t>Day38</t>
-  </si>
-  <si>
-    <t>1st ml app in streamlit ui</t>
   </si>
   <si>
     <t>https://youtu.be/_r069oRL53w</t>
@@ -1304,6 +1298,39 @@
 how to compare actual data vs predicted data (y_test vs y_pred)
 we train the historical data build model
 pass validation data predict future prediction | future pred vs real time data</t>
+  </si>
+  <si>
+    <t>Day40</t>
+  </si>
+  <si>
+    <t>MLR Algorithm</t>
+  </si>
+  <si>
+    <t>SLR-1st ml app in streamlit ui</t>
+  </si>
+  <si>
+    <t>regresssion pratical 1 slr model performance</t>
+  </si>
+  <si>
+    <t>we buitl multiple lienar Iregression model
+how to add constat to the dataset using np.append
+we build regrssion table | p-value | based on highest we elimate the attribute
+we find out the attributeI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/uXU2DjYQonQ?si=4khCyhZtWwvAOqsr</t>
+  </si>
+  <si>
+    <t>24-01-2-26</t>
+  </si>
+  <si>
+    <t>Day41</t>
+  </si>
+  <si>
+    <t>regulization ,lasso,</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ZMN9pWIVHlM?si=tq8O2mYC29EsEREz</t>
   </si>
 </sst>
 </file>
@@ -1709,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2374,13 +2401,13 @@
         <v>46043</v>
       </c>
       <c r="B41" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C41" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E41" t="s">
         <v>362</v>
@@ -2391,16 +2418,47 @@
         <v>46044</v>
       </c>
       <c r="B42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C42" t="s">
+        <v>371</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B43" t="s">
         <v>369</v>
       </c>
-      <c r="E42" t="s">
-        <v>368</v>
+      <c r="C43" t="s">
+        <v>370</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E43" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B44" t="s">
+        <v>376</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E44" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/Regular Summarization link.xlsx
+++ b/Regular Summarization link.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\L\GenAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6B62AF-0A4F-460A-8AF9-FFA1BA558B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB46721-C68D-435B-A484-F2C8CBCAC7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="395">
   <si>
     <t>Date</t>
   </si>
@@ -1321,16 +1321,79 @@
     <t>https://youtu.be/uXU2DjYQonQ?si=4khCyhZtWwvAOqsr</t>
   </si>
   <si>
-    <t>24-01-2-26</t>
-  </si>
-  <si>
     <t>Day41</t>
   </si>
   <si>
-    <t>regulization ,lasso,</t>
-  </si>
-  <si>
     <t>https://youtu.be/ZMN9pWIVHlM?si=tq8O2mYC29EsEREz</t>
+  </si>
+  <si>
+    <t>Day42</t>
+  </si>
+  <si>
+    <t>Regularization project</t>
+  </si>
+  <si>
+    <t>non -linear model</t>
+  </si>
+  <si>
+    <t>regulization ,lasso,l1,l2,simple linear model</t>
+  </si>
+  <si>
+    <t>polynomial model with hyperparameter tunning -- 174.8 -- 6.5 level svr model -- 164</t>
+  </si>
+  <si>
+    <t>Day43</t>
+  </si>
+  <si>
+    <t>logistic Regression</t>
+  </si>
+  <si>
+    <t>day44</t>
+  </si>
+  <si>
+    <t>KNN classifier</t>
+  </si>
+  <si>
+    <t>vechicle purchase dataset classification model compare with logistic</t>
+  </si>
+  <si>
+    <t>logistic model | how to check confusion matrix |
+overfiting model &amp; underfiting model
+preicics, recall, we build mode with scaling, without scaling,
+what hapend when we change random state value = 0, 11, 21, 41, 51, 100, result 0
+we buidl ml model on historical data | model built 92.50%
+share future data -- future data we need to pass to build in model and predict the future records for
+prediction
+real time data vs prediction data ( ml testing -1) | 3 time for testing future records ( 85% ) pickle &amp;
+deployment</t>
+  </si>
+  <si>
+    <t>how to pass validation data or future data to the build in models
+model predicts the future records | compare with future pred vs live data
+3phase sof model testing will be going on. We take average of 3 phases then deployment
+knn -- k nearest neighbour | decission will be take based the neighbour
+knn distance matrix | EU - euclidian distance matrix | MD - manhatten distance matrix
+ED - shortest distance | MD - Farthest distance
+when we built knn model we discuss about all the model
+ML MODEL PARAMETER VS LLM MODEL PARAMETER</t>
+  </si>
+  <si>
+    <t>Day45</t>
+  </si>
+  <si>
+    <t>NavBais</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ZctabZF3AP4?si=zVwOT_4ihHNKjkwF</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ReigBiEsamU?si=hBxPxQMBeWSmZ_I3</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ALcAzgmMMWo?si=4sAi34F221fptXTU</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ufR0wvjw4mA?si=xZvGfVmhFjrJoFyI</t>
   </si>
 </sst>
 </file>
@@ -1736,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2448,23 +2511,97 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="1">
+        <v>46046</v>
+      </c>
+      <c r="B44" t="s">
         <v>375</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>378</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E44" t="s">
         <v>376</v>
       </c>
-      <c r="D44" s="4" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B45" t="s">
         <v>377</v>
       </c>
-      <c r="E44" t="s">
-        <v>378</v>
+      <c r="C45" t="s">
+        <v>379</v>
+      </c>
+      <c r="D45" t="s">
+        <v>381</v>
+      </c>
+      <c r="E45" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>46050</v>
+      </c>
+      <c r="B46" t="s">
+        <v>382</v>
+      </c>
+      <c r="C46" t="s">
+        <v>383</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E46" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="155" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>46051</v>
+      </c>
+      <c r="B47" t="s">
+        <v>384</v>
+      </c>
+      <c r="C47" t="s">
+        <v>385</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E47" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D48" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>46052</v>
+      </c>
+      <c r="B49" t="s">
+        <v>389</v>
+      </c>
+      <c r="C49" t="s">
+        <v>390</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E22" r:id="rId1" xr:uid="{5A33FBAD-1432-4693-BE9A-E2DEE19C8CFE}"/>
     <hyperlink ref="E20" r:id="rId2" xr:uid="{51500EED-015A-4C33-80B0-5CC84D9E823E}"/>
+    <hyperlink ref="E49" r:id="rId3" xr:uid="{B68093C6-8053-43EE-9675-B433971EB5D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
